--- a/Sep19/pos_prof/Tables/region.xlsx
+++ b/Sep19/pos_prof/Tables/region.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -422,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -459,228 +462,252 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.20743390879697</v>
       </c>
       <c r="C2">
+        <v>106960829103</v>
+      </c>
+      <c r="D2">
         <v>-0.02565242064592094</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.5058839106240718</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.1830780360287872</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1740123266745904</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.01257427355635428</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.0132047268719471</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.06287136778177163</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.06602363435973488</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.2130948962122795</v>
       </c>
       <c r="C3">
+        <v>145933306887</v>
+      </c>
+      <c r="D3">
         <v>2.524997775501499</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.270799189963377</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.727282454716515</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.556509809897273</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.1218868414995142</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1342152282154399</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.609434207497572</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.6710761410772004</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.2374553544560417</v>
       </c>
       <c r="C4">
+        <v>45685889210</v>
+      </c>
+      <c r="D4">
         <v>4.085183499744989</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>11.859249185867</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4.099438890382171</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9.322118455680037</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.3496754889814708</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.7267101917144903</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.748377444907354</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.633550958572452</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.4293297816364376</v>
       </c>
       <c r="C5">
+        <v>10524807277</v>
+      </c>
+      <c r="D5">
         <v>-2.404019935890689</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-1.509267552808722</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-2.109737816230732</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-1.508636002096868</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.7335313712671386</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.6901367419450319</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-3.667656856335694</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-3.450683709725162</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.2048529706690015</v>
       </c>
       <c r="C6">
+        <v>885447038872</v>
+      </c>
+      <c r="D6">
         <v>5.877433505740076</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2.486314796390639</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7.542234034231321</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5.264053336782998</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.465091788871077</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.300625795639975</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>22.32545894435539</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>21.50312897819985</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.3411401792246058</v>
       </c>
       <c r="C7">
+        <v>12956669707</v>
+      </c>
+      <c r="D7">
         <v>-36.61245512519325</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>141.7916000605185</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-40.54096830998851</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>79.31230422512931</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.445856528199673</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11.09828147919903</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>12.22928264099839</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>55.4914073959952</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.4546822824075114</v>
       </c>
       <c r="C8">
+        <v>5046999058</v>
+      </c>
+      <c r="D8">
         <v>0.1226294742463561</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.480388251381159</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.5234246582369</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.435577874616924</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.07756672200480838</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.01171672824491057</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.3878336100240414</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.05858364122455354</v>
       </c>
     </row>

--- a/Sep19/pos_prof/Tables/region.xlsx
+++ b/Sep19/pos_prof/Tables/region.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -483,16 +483,16 @@
         <v>0.5058839106240718</v>
       </c>
       <c r="F2">
+        <v>-0.0366156072057573</v>
+      </c>
+      <c r="G2">
+        <v>0.03480246533491808</v>
+      </c>
+      <c r="H2">
         <v>-0.1830780360287872</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.1740123266745904</v>
-      </c>
-      <c r="H2">
-        <v>-0.01257427355635428</v>
-      </c>
-      <c r="I2">
-        <v>0.0132047268719471</v>
       </c>
       <c r="J2">
         <v>-0.06287136778177163</v>
@@ -518,16 +518,16 @@
         <v>2.270799189963377</v>
       </c>
       <c r="F3">
+        <v>0.3454564909433036</v>
+      </c>
+      <c r="G3">
+        <v>0.311301961979455</v>
+      </c>
+      <c r="H3">
         <v>1.727282454716515</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1.556509809897273</v>
-      </c>
-      <c r="H3">
-        <v>-0.1218868414995142</v>
-      </c>
-      <c r="I3">
-        <v>-0.1342152282154399</v>
       </c>
       <c r="J3">
         <v>-0.609434207497572</v>
@@ -553,16 +553,16 @@
         <v>11.859249185867</v>
       </c>
       <c r="F4">
+        <v>0.8198877780764348</v>
+      </c>
+      <c r="G4">
+        <v>1.864423691136007</v>
+      </c>
+      <c r="H4">
         <v>4.099438890382171</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>9.322118455680037</v>
-      </c>
-      <c r="H4">
-        <v>0.3496754889814708</v>
-      </c>
-      <c r="I4">
-        <v>0.7267101917144903</v>
       </c>
       <c r="J4">
         <v>1.748377444907354</v>
@@ -588,16 +588,16 @@
         <v>-1.509267552808722</v>
       </c>
       <c r="F5">
+        <v>-0.4219475632461457</v>
+      </c>
+      <c r="G5">
+        <v>-0.3017272004193731</v>
+      </c>
+      <c r="H5">
         <v>-2.109737816230732</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-1.508636002096868</v>
-      </c>
-      <c r="H5">
-        <v>-0.7335313712671386</v>
-      </c>
-      <c r="I5">
-        <v>-0.6901367419450319</v>
       </c>
       <c r="J5">
         <v>-3.667656856335694</v>
@@ -623,16 +623,16 @@
         <v>2.486314796390639</v>
       </c>
       <c r="F6">
+        <v>1.508446806846264</v>
+      </c>
+      <c r="G6">
+        <v>1.052810667356595</v>
+      </c>
+      <c r="H6">
         <v>7.542234034231321</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>5.264053336782998</v>
-      </c>
-      <c r="H6">
-        <v>4.465091788871077</v>
-      </c>
-      <c r="I6">
-        <v>4.300625795639975</v>
       </c>
       <c r="J6">
         <v>22.32545894435539</v>
@@ -658,16 +658,16 @@
         <v>141.7916000605185</v>
       </c>
       <c r="F7">
+        <v>-8.108193661997705</v>
+      </c>
+      <c r="G7">
+        <v>15.86246084502586</v>
+      </c>
+      <c r="H7">
         <v>-40.54096830998851</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>79.31230422512931</v>
-      </c>
-      <c r="H7">
-        <v>2.445856528199673</v>
-      </c>
-      <c r="I7">
-        <v>11.09828147919903</v>
       </c>
       <c r="J7">
         <v>12.22928264099839</v>
@@ -693,16 +693,16 @@
         <v>1.480388251381159</v>
       </c>
       <c r="F8">
+        <v>0.50468493164738</v>
+      </c>
+      <c r="G8">
+        <v>0.6871155749233844</v>
+      </c>
+      <c r="H8">
         <v>2.5234246582369</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>3.435577874616924</v>
-      </c>
-      <c r="H8">
-        <v>-0.07756672200480838</v>
-      </c>
-      <c r="I8">
-        <v>-0.01171672824491057</v>
       </c>
       <c r="J8">
         <v>-0.3878336100240414</v>

--- a/Sep19/pos_prof/Tables/region.xlsx
+++ b/Sep19/pos_prof/Tables/region.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -483,22 +483,22 @@
         <v>0.5058839106240718</v>
       </c>
       <c r="F2">
-        <v>-0.0366156072057573</v>
+        <v>-0.1830780360287872</v>
       </c>
       <c r="G2">
-        <v>0.03480246533491808</v>
+        <v>0.1740123266745904</v>
       </c>
       <c r="H2">
-        <v>-0.1830780360287872</v>
+        <v>-0.003446700311448325</v>
       </c>
       <c r="I2">
-        <v>0.1740123266745904</v>
+        <v>0.0679713722292271</v>
       </c>
       <c r="J2">
-        <v>-0.06287136778177163</v>
+        <v>-0.01723350155724128</v>
       </c>
       <c r="K2">
-        <v>0.06602363435973488</v>
+        <v>0.3398568611461363</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,22 +518,22 @@
         <v>2.270799189963377</v>
       </c>
       <c r="F3">
-        <v>0.3454564909433036</v>
+        <v>1.727282454716515</v>
       </c>
       <c r="G3">
-        <v>0.311301961979455</v>
+        <v>1.556509809897273</v>
       </c>
       <c r="H3">
-        <v>1.727282454716515</v>
+        <v>0.3392627440253211</v>
       </c>
       <c r="I3">
-        <v>1.556509809897273</v>
+        <v>0.3051082150614727</v>
       </c>
       <c r="J3">
-        <v>-0.609434207497572</v>
+        <v>1.696313720126608</v>
       </c>
       <c r="K3">
-        <v>-0.6710761410772004</v>
+        <v>1.525541075307366</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,22 +553,22 @@
         <v>11.859249185867</v>
       </c>
       <c r="F4">
-        <v>0.8198877780764348</v>
+        <v>4.099438890382171</v>
       </c>
       <c r="G4">
-        <v>1.864423691136007</v>
+        <v>9.322118455680037</v>
       </c>
       <c r="H4">
-        <v>4.099438890382171</v>
+        <v>0.5488917960314574</v>
       </c>
       <c r="I4">
-        <v>9.322118455680037</v>
+        <v>1.59342770909103</v>
       </c>
       <c r="J4">
-        <v>1.748377444907354</v>
+        <v>2.744458980157286</v>
       </c>
       <c r="K4">
-        <v>3.633550958572452</v>
+        <v>7.967138545455151</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,22 +588,22 @@
         <v>-1.509267552808722</v>
       </c>
       <c r="F5">
-        <v>-0.4219475632461457</v>
+        <v>-2.109737816230732</v>
       </c>
       <c r="G5">
-        <v>-0.3017272004193731</v>
+        <v>-1.508636002096868</v>
       </c>
       <c r="H5">
-        <v>-2.109737816230732</v>
+        <v>-0.3230079677911261</v>
       </c>
       <c r="I5">
-        <v>-1.508636002096868</v>
+        <v>-0.2027876049643534</v>
       </c>
       <c r="J5">
-        <v>-3.667656856335694</v>
+        <v>-1.615039838955632</v>
       </c>
       <c r="K5">
-        <v>-3.450683709725162</v>
+        <v>-1.013938024821768</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,22 +623,22 @@
         <v>2.486314796390639</v>
       </c>
       <c r="F6">
-        <v>1.508446806846264</v>
+        <v>7.542234034231321</v>
       </c>
       <c r="G6">
-        <v>1.052810667356595</v>
+        <v>5.264053336782998</v>
       </c>
       <c r="H6">
-        <v>7.542234034231321</v>
+        <v>0.7897013765042615</v>
       </c>
       <c r="I6">
-        <v>5.264053336782998</v>
+        <v>0.3340652370145926</v>
       </c>
       <c r="J6">
-        <v>22.32545894435539</v>
+        <v>3.948506882521332</v>
       </c>
       <c r="K6">
-        <v>21.50312897819985</v>
+        <v>1.670326185072986</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,22 +658,22 @@
         <v>141.7916000605185</v>
       </c>
       <c r="F7">
-        <v>-8.108193661997705</v>
+        <v>-40.54096830998851</v>
       </c>
       <c r="G7">
-        <v>15.86246084502586</v>
+        <v>79.31230422512931</v>
       </c>
       <c r="H7">
-        <v>-40.54096830998851</v>
+        <v>-4.919308092780396</v>
       </c>
       <c r="I7">
-        <v>79.31230422512931</v>
+        <v>19.05134641424317</v>
       </c>
       <c r="J7">
-        <v>12.22928264099839</v>
+        <v>-24.59654046390198</v>
       </c>
       <c r="K7">
-        <v>55.4914073959952</v>
+        <v>95.25673207121591</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,22 +693,22 @@
         <v>1.480388251381159</v>
       </c>
       <c r="F8">
-        <v>0.50468493164738</v>
+        <v>2.5234246582369</v>
       </c>
       <c r="G8">
-        <v>0.6871155749233844</v>
+        <v>3.435577874616924</v>
       </c>
       <c r="H8">
-        <v>2.5234246582369</v>
+        <v>0.01647669250834775</v>
       </c>
       <c r="I8">
-        <v>3.435577874616924</v>
+        <v>0.1989073357843525</v>
       </c>
       <c r="J8">
-        <v>-0.3878336100240414</v>
+        <v>0.08238346254174043</v>
       </c>
       <c r="K8">
-        <v>-0.05858364122455354</v>
+        <v>0.9945366789217631</v>
       </c>
     </row>
   </sheetData>
